--- a/BOM + Print List/Milo V1.5 print list.xlsx
+++ b/BOM + Print List/Milo V1.5 print list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="74">
   <si>
     <t xml:space="preserve">Part Category</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Color</t>
   </si>
   <si>
     <t xml:space="preserve">Y axis anti backlash nut</t>
@@ -596,10 +599,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.3"/>
@@ -815,7 +818,9 @@
         <v>13</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -857,7 +862,9 @@
         <v>13</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -941,8 +948,12 @@
         <v>22</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -965,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>0.4</v>
@@ -983,7 +994,9 @@
         <v>13</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1004,10 +1017,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>0.4</v>
@@ -1046,10 +1059,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>0.4</v>
@@ -1067,7 +1080,9 @@
         <v>13</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1088,10 +1103,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>0.4</v>
@@ -1109,7 +1124,9 @@
         <v>13</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -1130,16 +1147,16 @@
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>12</v>
@@ -1151,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1174,16 +1191,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>12</v>
@@ -1195,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1218,16 +1235,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>12</v>
@@ -1239,7 +1256,9 @@
         <v>13</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1260,16 +1279,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>12</v>
@@ -1281,7 +1300,9 @@
         <v>13</v>
       </c>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1302,16 +1323,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>12</v>
@@ -1344,16 +1365,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>12</v>
@@ -1386,16 +1407,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>12</v>
@@ -1428,16 +1449,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>12</v>
@@ -1470,16 +1491,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>12</v>
@@ -1512,16 +1533,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>12</v>
@@ -1554,16 +1575,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="19" t="n">
         <v>0.4</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>12</v>
@@ -1596,16 +1617,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="19" t="n">
         <v>0.4</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>12</v>
@@ -1638,16 +1659,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="19" t="n">
         <v>0.4</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>12</v>
@@ -1680,16 +1701,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="19" t="n">
         <v>0.4</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>12</v>
@@ -1722,16 +1743,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>12</v>
@@ -1764,16 +1785,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>12</v>
@@ -1806,16 +1827,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>12</v>
@@ -1848,16 +1869,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>12</v>
@@ -1890,16 +1911,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>12</v>
@@ -1932,16 +1953,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>12</v>
@@ -1974,10 +1995,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="25" t="n">
         <v>0.4</v>
@@ -1995,7 +2016,9 @@
         <v>22</v>
       </c>
       <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -2016,10 +2039,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="25" t="n">
         <v>0.4</v>
@@ -2037,7 +2060,9 @@
         <v>22</v>
       </c>
       <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -2058,10 +2083,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="25" t="n">
         <v>0.4</v>
@@ -2102,10 +2127,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="25" t="n">
         <v>0.4</v>
@@ -2146,10 +2171,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="25" t="n">
         <v>0.4</v>
@@ -2190,10 +2215,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="25" t="n">
         <v>0.4</v>
@@ -2234,10 +2259,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="25" t="n">
         <v>0.4</v>
@@ -2276,10 +2301,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="25" t="n">
         <v>0.4</v>
@@ -2316,10 +2341,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="25" t="n">
         <v>0.4</v>
@@ -2356,10 +2381,10 @@
     </row>
     <row r="42" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="25" t="n">
         <v>0.4</v>
@@ -2375,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -2398,10 +2423,10 @@
     </row>
     <row r="43" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="25" t="n">
         <v>0.4</v>
@@ -2417,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -2440,19 +2465,19 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="25" t="n">
         <v>0.6</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
@@ -2480,10 +2505,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" s="29" t="n">
         <v>0.4</v>
@@ -2499,7 +2524,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I45" s="28" t="n">
         <v>2</v>
@@ -2524,10 +2549,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="29" t="n">
         <v>0.4</v>
@@ -2543,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I46" s="28" t="n">
         <v>2</v>
